--- a/Timeframes.xlsx
+++ b/Timeframes.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/Recirculation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sauerswa\wichtige Ordner\sauerswa\Codes\Python\Recirculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC1048CD91DD5C365BDE58EB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{34118941-D8F6-4A74-9548-5FDA55EBD916}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AF3336-338E-45E7-9074-6D1B24308715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2175" yWindow="18600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -178,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,9 +467,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
